--- a/experimental_data/GEC/Tygstrup1963.xlsx
+++ b/experimental_data/GEC/Tygstrup1963.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="193" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="193" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tygstrup1963" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
     <t>case</t>
   </si>
   <si>
-    <t>state</t>
+    <t>status</t>
   </si>
   <si>
     <t>age [years]</t>
@@ -196,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -275,7 +275,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -284,95 +284,95 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -438,23 +438,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>251280</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:colOff>429120</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -465,8 +465,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191880" y="4142160"/>
-          <a:ext cx="4215240" cy="4987080"/>
+          <a:off x="9218880" y="4133160"/>
+          <a:ext cx="4214880" cy="4986720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,19 +481,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>488880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:colOff>515520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="1" name="Graphics 2"/>
+        <xdr:cNvPr id="1" name="Graphics 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -504,8 +504,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12351240" y="255600"/>
-          <a:ext cx="4393440" cy="3093840"/>
+          <a:off x="12378240" y="246600"/>
+          <a:ext cx="4393080" cy="3093480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -527,8 +527,8 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6:M17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -536,18 +536,18 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.9" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="23.85" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -642,7 +642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>25</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>25</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>25</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
@@ -978,7 +978,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1104,9 +1104,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20">
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
         <v>43</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
         <v>45</v>
       </c>
@@ -1147,9 +1147,9 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="24" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="27.85" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>3.38333333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>3.31111111111111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>3.12777777777778</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>2.84444444444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>2.80555555555556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>25</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2.26111111111111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>2.17777777777778</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>2.03888888888889</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>25</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1.89444444444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
         <v>25</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1.67777777777778</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
         <v>25</v>
       </c>
@@ -1587,7 +1587,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
